--- a/CCTV.xlsx
+++ b/CCTV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,57 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Sr. No</t>
+  </si>
+  <si>
+    <t>Honeywell 2 MP</t>
+  </si>
+  <si>
+    <t>Dahua 2MP</t>
+  </si>
+  <si>
+    <t>CP Plus 2MP</t>
+  </si>
+  <si>
+    <t>Analog</t>
+  </si>
+  <si>
+    <t>Dahua 5MP</t>
+  </si>
+  <si>
+    <t>CP Plus 5MP</t>
+  </si>
+  <si>
+    <t>Honeywell 4MP</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +87,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +400,541 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="15.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>